--- a/양식-한자쓰기.xlsx
+++ b/양식-한자쓰기.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AX$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$AT$76</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -268,6 +270,9051 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="그룹 20"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="376518" y="878541"/>
+          <a:ext cx="1004047" cy="998856"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="2" name="직사각형 1"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="20" name="그룹 19"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="4" name="직선 연결선 3"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="5" name="직선 연결선 4"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="8" name="직선 연결선 7"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="2" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="11" name="직선 연결선 10"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8019</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="그룹 21"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2392632" y="878541"/>
+          <a:ext cx="1004046" cy="998856"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="직사각형 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="24" name="그룹 23"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="25" name="직선 연결선 24"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="26" name="직선 연결선 25"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="27" name="직선 연결선 26"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="23" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="28" name="직선 연결선 27"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="그룹 28"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1380565" y="878542"/>
+          <a:ext cx="1012067" cy="1004047"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="30" name="직사각형 29"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="31" name="그룹 30"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="32" name="직선 연결선 31"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="33" name="직선 연결선 32"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="34" name="직선 연결선 33"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="30" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="35" name="직선 연결선 34"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="36" name="그룹 35"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="376518" y="1877397"/>
+          <a:ext cx="1004047" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="37" name="직사각형 36"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="38" name="그룹 37"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="39" name="직선 연결선 38"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="40" name="직선 연결선 39"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="41" name="직선 연결선 40"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="37" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="42" name="직선 연결선 41"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8019</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="43" name="그룹 42"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2392632" y="1877397"/>
+          <a:ext cx="1004046" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="44" name="직사각형 43"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="45" name="그룹 44"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="46" name="직선 연결선 45"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="47" name="직선 연결선 46"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="48" name="직선 연결선 47"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="44" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="49" name="직선 연결선 48"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="50" name="그룹 49"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1380565" y="1882589"/>
+          <a:ext cx="1012067" cy="1004046"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="51" name="직사각형 50"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="52" name="그룹 51"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="53" name="직선 연결선 52"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="54" name="직선 연결선 53"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="55" name="직선 연결선 54"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="51" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="56" name="직선 연결선 55"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="64" name="그룹 63"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3388659" y="881319"/>
+          <a:ext cx="1004047" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="65" name="직사각형 64"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="66" name="그룹 65"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="67" name="직선 연결선 66"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="68" name="직선 연결선 67"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="69" name="직선 연결선 68"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="65" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="70" name="직선 연결선 69"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>7254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>4476</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="71" name="그룹 70"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4392706" y="885795"/>
+          <a:ext cx="1004047" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="72" name="직사각형 71"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="73" name="그룹 72"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="74" name="직선 연결선 73"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="75" name="직선 연결선 74"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="76" name="직선 연결선 75"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="72" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="77" name="직선 연결선 76"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>131379</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1142</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>118092</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="78" name="그룹 77"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3394532" y="1882588"/>
+          <a:ext cx="999316" cy="996633"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="79" name="직사각형 78"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="80" name="그룹 79"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="81" name="직선 연결선 80"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="82" name="직선 연결선 81"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="83" name="직선 연결선 82"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="79" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="84" name="직선 연결선 83"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>131378</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>118091</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="85" name="그룹 84"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4392706" y="1882588"/>
+          <a:ext cx="1009919" cy="996632"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="86" name="직사각형 85"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="87" name="그룹 86"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="88" name="직선 연결선 87"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="89" name="직선 연결선 88"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="90" name="직선 연결선 89"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="86" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="91" name="직선 연결선 90"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="92" name="그룹 91"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="376518" y="2886635"/>
+          <a:ext cx="1004047" cy="998856"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="93" name="직사각형 92"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="94" name="그룹 93"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="95" name="직선 연결선 94"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="96" name="직선 연결선 95"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="97" name="직선 연결선 96"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="93" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="98" name="직선 연결선 97"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8019</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="99" name="그룹 98"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2392632" y="2886635"/>
+          <a:ext cx="1004046" cy="998856"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="100" name="직사각형 99"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="101" name="그룹 100"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="102" name="직선 연결선 101"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="103" name="직선 연결선 102"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="104" name="직선 연결선 103"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="100" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="105" name="직선 연결선 104"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="106" name="그룹 105"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1380565" y="2886636"/>
+          <a:ext cx="1012067" cy="1004047"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="107" name="직사각형 106"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="108" name="그룹 107"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="109" name="직선 연결선 108"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="110" name="직선 연결선 109"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="111" name="직선 연결선 110"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="107" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="112" name="직선 연결선 111"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="113" name="그룹 112"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="376518" y="3885491"/>
+          <a:ext cx="1004047" cy="1001270"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="114" name="직사각형 113"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="115" name="그룹 114"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="116" name="직선 연결선 115"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="117" name="직선 연결선 116"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="118" name="직선 연결선 117"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="114" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="119" name="직선 연결선 118"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8019</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="120" name="그룹 119"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2392632" y="3885491"/>
+          <a:ext cx="1004046" cy="1001270"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="121" name="직사각형 120"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="122" name="그룹 121"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="123" name="직선 연결선 122"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="124" name="직선 연결선 123"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="125" name="직선 연결선 124"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="121" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="126" name="직선 연결선 125"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="127" name="그룹 126"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1380565" y="3890683"/>
+          <a:ext cx="1012067" cy="1004046"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="128" name="직사각형 127"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="129" name="그룹 128"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="130" name="직선 연결선 129"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="131" name="직선 연결선 130"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="132" name="직선 연결선 131"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="128" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="133" name="직선 연결선 132"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>2778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="134" name="그룹 133"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3388659" y="2889413"/>
+          <a:ext cx="1004047" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="135" name="직사각형 134"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="136" name="그룹 135"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="137" name="직선 연결선 136"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="138" name="직선 연결선 137"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="139" name="직선 연결선 138"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="135" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="140" name="직선 연결선 139"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4476</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="141" name="그룹 140"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4392706" y="2893889"/>
+          <a:ext cx="1004047" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="142" name="직사각형 141"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="143" name="그룹 142"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="144" name="직선 연결선 143"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="145" name="직선 연결선 144"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="146" name="직선 연결선 145"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="142" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="147" name="직선 연결선 146"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1839</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1142</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>118092</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="148" name="그룹 147"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3390498" y="3890682"/>
+          <a:ext cx="1003350" cy="996634"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="149" name="직사각형 148"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="150" name="그룹 149"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="151" name="직선 연결선 150"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="152" name="직선 연결선 151"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="153" name="직선 연결선 152"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="149" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="154" name="직선 연결선 153"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1838</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>118091</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="155" name="그룹 154"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4392706" y="3890682"/>
+          <a:ext cx="1005885" cy="996633"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="156" name="직사각형 155"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="157" name="그룹 156"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="158" name="직선 연결선 157"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="159" name="직선 연결선 158"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="160" name="직선 연결선 159"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="156" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="161" name="직선 연결선 160"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="162" name="그룹 161"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="376518" y="4894729"/>
+          <a:ext cx="1004047" cy="998857"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="163" name="직사각형 162"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="164" name="그룹 163"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="165" name="직선 연결선 164"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="166" name="직선 연결선 165"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="167" name="직선 연결선 166"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="163" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="168" name="직선 연결선 167"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8019</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="169" name="그룹 168"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2392632" y="4894729"/>
+          <a:ext cx="1004046" cy="998857"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="170" name="직사각형 169"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="171" name="그룹 170"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="172" name="직선 연결선 171"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="173" name="직선 연결선 172"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="174" name="직선 연결선 173"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="170" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="175" name="직선 연결선 174"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="176" name="그룹 175"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1380565" y="4894730"/>
+          <a:ext cx="1012067" cy="1004047"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="177" name="직사각형 176"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="178" name="그룹 177"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="179" name="직선 연결선 178"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="180" name="직선 연결선 179"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="181" name="직선 연결선 180"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="177" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="182" name="직선 연결선 181"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="183" name="그룹 182"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="376518" y="5893586"/>
+          <a:ext cx="1004047" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="184" name="직사각형 183"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="185" name="그룹 184"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="186" name="직선 연결선 185"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="187" name="직선 연결선 186"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="188" name="직선 연결선 187"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="184" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="189" name="직선 연결선 188"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8019</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="190" name="그룹 189"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2392632" y="5893586"/>
+          <a:ext cx="1004046" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="191" name="직사각형 190"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="192" name="그룹 191"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="193" name="직선 연결선 192"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="194" name="직선 연결선 193"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="195" name="직선 연결선 194"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="191" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="196" name="직선 연결선 195"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="197" name="그룹 196"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1380565" y="5898777"/>
+          <a:ext cx="1012067" cy="1004047"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="198" name="직사각형 197"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="199" name="그룹 198"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="200" name="직선 연결선 199"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="201" name="직선 연결선 200"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="202" name="직선 연결선 201"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="198" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="203" name="직선 연결선 202"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="204" name="그룹 203"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3388659" y="4897507"/>
+          <a:ext cx="1004047" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="205" name="직사각형 204"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="206" name="그룹 205"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="207" name="직선 연결선 206"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="208" name="직선 연결선 207"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="209" name="직선 연결선 208"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="205" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="210" name="직선 연결선 209"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>7254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>4476</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="211" name="그룹 210"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4392706" y="4901983"/>
+          <a:ext cx="1004047" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="212" name="직사각형 211"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="213" name="그룹 212"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="214" name="직선 연결선 213"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="215" name="직선 연결선 214"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="216" name="직선 연결선 215"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="212" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="217" name="직선 연결선 216"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1839</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1142</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>118092</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="218" name="그룹 217"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3390498" y="5898776"/>
+          <a:ext cx="1003350" cy="996634"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="219" name="직사각형 218"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="220" name="그룹 219"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="221" name="직선 연결선 220"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="222" name="직선 연결선 221"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="223" name="직선 연결선 222"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="219" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="224" name="직선 연결선 223"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1838</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>118091</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="225" name="그룹 224"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4392706" y="5898776"/>
+          <a:ext cx="1005885" cy="996633"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="226" name="직사각형 225"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="227" name="그룹 226"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="228" name="직선 연결선 227"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="229" name="직선 연결선 228"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="230" name="직선 연결선 229"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="226" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="231" name="직선 연결선 230"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="232" name="그룹 231"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="376518" y="6902824"/>
+          <a:ext cx="1004047" cy="998856"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="233" name="직사각형 232"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="234" name="그룹 233"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="235" name="직선 연결선 234"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="236" name="직선 연결선 235"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="237" name="직선 연결선 236"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="233" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="238" name="직선 연결선 237"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8019</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="239" name="그룹 238"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2392632" y="6902824"/>
+          <a:ext cx="1004046" cy="998856"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="240" name="직사각형 239"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="241" name="그룹 240"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="242" name="직선 연결선 241"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="243" name="직선 연결선 242"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="244" name="직선 연결선 243"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="240" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="245" name="직선 연결선 244"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="246" name="그룹 245"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1380565" y="6902825"/>
+          <a:ext cx="1012067" cy="1004047"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="247" name="직사각형 246"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="248" name="그룹 247"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="249" name="직선 연결선 248"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="250" name="직선 연결선 249"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="251" name="직선 연결선 250"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="247" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="252" name="직선 연결선 251"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="253" name="그룹 252"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="376518" y="7901680"/>
+          <a:ext cx="1004047" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="254" name="직사각형 253"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="255" name="그룹 254"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="256" name="직선 연결선 255"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="257" name="직선 연결선 256"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="258" name="직선 연결선 257"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="254" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="259" name="직선 연결선 258"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>8019</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="260" name="그룹 259"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2392632" y="7901680"/>
+          <a:ext cx="1004046" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="261" name="직사각형 260"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="262" name="그룹 261"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="263" name="직선 연결선 262"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="264" name="직선 연결선 263"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="265" name="직선 연결선 264"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="261" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="266" name="직선 연결선 265"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="267" name="그룹 266"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1380565" y="7906872"/>
+          <a:ext cx="1012067" cy="1004046"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="268" name="직사각형 267"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="269" name="그룹 268"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="270" name="직선 연결선 269"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="271" name="직선 연결선 270"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="272" name="직선 연결선 271"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="268" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="273" name="직선 연결선 272"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="274" name="그룹 273"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3388659" y="6905602"/>
+          <a:ext cx="1004047" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="275" name="직사각형 274"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="276" name="그룹 275"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="277" name="직선 연결선 276"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="278" name="직선 연결선 277"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="279" name="직선 연결선 278"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="275" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="280" name="직선 연결선 279"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>7254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>4476</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="281" name="그룹 280"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4392706" y="6910078"/>
+          <a:ext cx="1004047" cy="1001269"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="282" name="직사각형 281"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="283" name="그룹 282"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="284" name="직선 연결선 283"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="285" name="직선 연결선 284"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="286" name="직선 연결선 285"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="282" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="287" name="직선 연결선 286"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1839</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>1142</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>118092</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="288" name="그룹 287"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3390498" y="7906871"/>
+          <a:ext cx="1003350" cy="996633"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="289" name="직사각형 288"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="290" name="그룹 289"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="291" name="직선 연결선 290"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="292" name="직선 연결선 291"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="293" name="직선 연결선 292"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="289" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="294" name="직선 연결선 293"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>1838</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>118091</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="295" name="그룹 294"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4392706" y="7906871"/>
+          <a:ext cx="1005885" cy="996632"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="296" name="직사각형 295"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="297" name="그룹 296"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="298" name="직선 연결선 297"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="299" name="직선 연결선 298"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="300" name="직선 연결선 299"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="296" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="301" name="직선 연결선 300"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,8 +9582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AW81"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BA86" sqref="BA86"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AE91" sqref="AE91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.69921875" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4545,6 +13592,24 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="99" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="AL75" sqref="AL75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.69921875" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/양식-한자쓰기.xlsx
+++ b/양식-한자쓰기.xlsx
@@ -4,15 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AX$82</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet2!$A$1:$AT$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Sheet2 (2)'!$A$1:$AT$75</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -237,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -255,6 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -294,8 +297,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="376518" y="878541"/>
-          <a:ext cx="1004047" cy="998856"/>
+          <a:off x="386862" y="861646"/>
+          <a:ext cx="1031630" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -503,13 +506,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8020</xdr:colOff>
+      <xdr:colOff>8021</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>8019</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>120315</xdr:rowOff>
     </xdr:to>
@@ -520,8 +523,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2392632" y="878541"/>
-          <a:ext cx="1004046" cy="998856"/>
+          <a:off x="2458144" y="861646"/>
+          <a:ext cx="1023610" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -731,13 +734,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8020</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -746,8 +749,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1380565" y="878542"/>
-          <a:ext cx="1012067" cy="1004047"/>
+          <a:off x="1418492" y="861648"/>
+          <a:ext cx="1031631" cy="984737"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -956,14 +959,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>120315</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>117537</xdr:rowOff>
+      <xdr:rowOff>117231</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -972,8 +975,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="376518" y="1877397"/>
-          <a:ext cx="1004047" cy="1001269"/>
+          <a:off x="386862" y="1846385"/>
+          <a:ext cx="1031630" cy="978877"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -1181,13 +1184,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8020</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>120315</xdr:rowOff>
+      <xdr:colOff>8021</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>8019</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>117537</xdr:rowOff>
     </xdr:to>
@@ -1198,8 +1201,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2392632" y="1877397"/>
-          <a:ext cx="1004046" cy="1001269"/>
+          <a:off x="2458144" y="1846385"/>
+          <a:ext cx="1023610" cy="979183"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -1413,7 +1416,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8020</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -1424,8 +1427,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1380565" y="1882589"/>
-          <a:ext cx="1012067" cy="1004046"/>
+          <a:off x="1418492" y="1846386"/>
+          <a:ext cx="1031631" cy="984737"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -1650,8 +1653,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3388659" y="881319"/>
-          <a:ext cx="1004047" cy="1001269"/>
+          <a:off x="3481754" y="864424"/>
+          <a:ext cx="1031631" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -1876,8 +1879,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4392706" y="885795"/>
-          <a:ext cx="1004047" cy="1001269"/>
+          <a:off x="4513385" y="868900"/>
+          <a:ext cx="1031630" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -2084,14 +2087,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>131379</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>17585</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>1142</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>118092</xdr:rowOff>
     </xdr:to>
@@ -2102,8 +2105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3394532" y="1882588"/>
-          <a:ext cx="999316" cy="996633"/>
+          <a:off x="3499339" y="1846385"/>
+          <a:ext cx="1014046" cy="979738"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -2328,8 +2331,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4392706" y="1882588"/>
-          <a:ext cx="1009919" cy="996632"/>
+          <a:off x="4513385" y="1846385"/>
+          <a:ext cx="1034055" cy="979737"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -2554,8 +2557,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="376518" y="2886635"/>
-          <a:ext cx="1004047" cy="998856"/>
+          <a:off x="386862" y="2831123"/>
+          <a:ext cx="1031630" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -2769,7 +2772,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>8019</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>120315</xdr:rowOff>
     </xdr:to>
@@ -2780,8 +2783,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2392632" y="2886635"/>
-          <a:ext cx="1004046" cy="998856"/>
+          <a:off x="2458143" y="2831123"/>
+          <a:ext cx="1023611" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -2995,7 +2998,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8020</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -3006,8 +3009,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1380565" y="2886636"/>
-          <a:ext cx="1012067" cy="1004047"/>
+          <a:off x="1418492" y="2831124"/>
+          <a:ext cx="1031631" cy="984739"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -3216,8 +3219,8 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>120315</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
@@ -3232,8 +3235,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="376518" y="3885491"/>
-          <a:ext cx="1004047" cy="1001270"/>
+          <a:off x="386862" y="3815862"/>
+          <a:ext cx="1031630" cy="979183"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -3447,7 +3450,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>8019</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>117537</xdr:rowOff>
     </xdr:to>
@@ -3458,8 +3461,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2392632" y="3885491"/>
-          <a:ext cx="1004046" cy="1001270"/>
+          <a:off x="2458143" y="3813084"/>
+          <a:ext cx="1023611" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -3673,7 +3676,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8020</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3684,8 +3687,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1380565" y="3890683"/>
-          <a:ext cx="1012067" cy="1004046"/>
+          <a:off x="1418492" y="3815863"/>
+          <a:ext cx="1031631" cy="984737"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -3910,8 +3913,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3388659" y="2889413"/>
-          <a:ext cx="1004047" cy="1001269"/>
+          <a:off x="3481754" y="2833901"/>
+          <a:ext cx="1031631" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -4136,8 +4139,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4392706" y="2893889"/>
-          <a:ext cx="1004047" cy="1001269"/>
+          <a:off x="4513385" y="2838377"/>
+          <a:ext cx="1031630" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -4351,7 +4354,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>1142</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>118092</xdr:rowOff>
     </xdr:to>
@@ -4362,8 +4365,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3390498" y="3890682"/>
-          <a:ext cx="1003350" cy="996634"/>
+          <a:off x="3483593" y="3815862"/>
+          <a:ext cx="1029792" cy="979738"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -4588,8 +4591,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4392706" y="3890682"/>
-          <a:ext cx="1005885" cy="996633"/>
+          <a:off x="4513385" y="3815862"/>
+          <a:ext cx="1033468" cy="979737"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -4814,8 +4817,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="376518" y="4894729"/>
-          <a:ext cx="1004047" cy="998857"/>
+          <a:off x="386862" y="4800600"/>
+          <a:ext cx="1031630" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -5029,7 +5032,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>8019</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>120315</xdr:rowOff>
     </xdr:to>
@@ -5040,8 +5043,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2392632" y="4894729"/>
-          <a:ext cx="1004046" cy="998857"/>
+          <a:off x="2458143" y="4800600"/>
+          <a:ext cx="1023611" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -5249,15 +5252,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>17585</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8020</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5266,8 +5269,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1380565" y="4894730"/>
-          <a:ext cx="1012067" cy="1004047"/>
+          <a:off x="1436077" y="4800600"/>
+          <a:ext cx="1014046" cy="984738"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -5492,8 +5495,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="376518" y="5893586"/>
-          <a:ext cx="1004047" cy="1001269"/>
+          <a:off x="386862" y="5782561"/>
+          <a:ext cx="1031630" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -5707,7 +5710,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>8019</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>117537</xdr:rowOff>
     </xdr:to>
@@ -5718,8 +5721,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2392632" y="5893586"/>
-          <a:ext cx="1004046" cy="1001269"/>
+          <a:off x="2458143" y="5782561"/>
+          <a:ext cx="1023611" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -5933,7 +5936,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8020</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5944,8 +5947,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1380565" y="5898777"/>
-          <a:ext cx="1012067" cy="1004047"/>
+          <a:off x="1418492" y="5785339"/>
+          <a:ext cx="1031631" cy="984738"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -6170,8 +6173,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3388659" y="4897507"/>
-          <a:ext cx="1004047" cy="1001269"/>
+          <a:off x="3481754" y="4803378"/>
+          <a:ext cx="1031631" cy="981960"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -6396,8 +6399,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4392706" y="4901983"/>
-          <a:ext cx="1004047" cy="1001269"/>
+          <a:off x="4513385" y="4807854"/>
+          <a:ext cx="1031630" cy="981960"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -6606,12 +6609,12 @@
     <xdr:from>
       <xdr:col>27</xdr:col>
       <xdr:colOff>1839</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>123092</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>1142</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>118092</xdr:rowOff>
     </xdr:to>
@@ -6622,8 +6625,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3390498" y="5898776"/>
-          <a:ext cx="1003350" cy="996634"/>
+          <a:off x="3483593" y="5785338"/>
+          <a:ext cx="1029792" cy="979739"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -6848,8 +6851,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4392706" y="5898776"/>
-          <a:ext cx="1005885" cy="996633"/>
+          <a:off x="4513385" y="5785338"/>
+          <a:ext cx="1033468" cy="979738"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -7074,8 +7077,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="376518" y="6902824"/>
-          <a:ext cx="1004047" cy="998856"/>
+          <a:off x="386862" y="6770077"/>
+          <a:ext cx="1031630" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -7289,7 +7292,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>8019</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>120315</xdr:rowOff>
     </xdr:to>
@@ -7300,8 +7303,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2392632" y="6902824"/>
-          <a:ext cx="1004046" cy="998856"/>
+          <a:off x="2458143" y="6770077"/>
+          <a:ext cx="1023611" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -7515,7 +7518,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8020</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
@@ -7526,8 +7529,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1380565" y="6902825"/>
-          <a:ext cx="1012067" cy="1004047"/>
+          <a:off x="1418492" y="6770078"/>
+          <a:ext cx="1031631" cy="984738"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -7752,8 +7755,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="376518" y="7901680"/>
-          <a:ext cx="1004047" cy="1001269"/>
+          <a:off x="386862" y="7752038"/>
+          <a:ext cx="1031630" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -7967,7 +7970,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>8019</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>117537</xdr:rowOff>
     </xdr:to>
@@ -7978,8 +7981,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2392632" y="7901680"/>
-          <a:ext cx="1004046" cy="1001269"/>
+          <a:off x="2458143" y="7752038"/>
+          <a:ext cx="1023611" cy="981961"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -8187,13 +8190,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>8020</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -8204,8 +8207,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1380565" y="7906872"/>
-          <a:ext cx="1012067" cy="1004046"/>
+          <a:off x="1418493" y="7754816"/>
+          <a:ext cx="1031630" cy="984738"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -8430,8 +8433,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3388659" y="6905602"/>
-          <a:ext cx="1004047" cy="1001269"/>
+          <a:off x="3481754" y="6772855"/>
+          <a:ext cx="1031631" cy="981960"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -8656,8 +8659,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4392706" y="6910078"/>
-          <a:ext cx="1004047" cy="1001269"/>
+          <a:off x="4513385" y="6777331"/>
+          <a:ext cx="1031630" cy="981960"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -8871,7 +8874,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>1142</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>118092</xdr:rowOff>
     </xdr:to>
@@ -8882,8 +8885,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3390498" y="7906871"/>
-          <a:ext cx="1003350" cy="996633"/>
+          <a:off x="3483593" y="7754815"/>
+          <a:ext cx="1029792" cy="979739"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -9108,8 +9111,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4392706" y="7906871"/>
-          <a:ext cx="1005885" cy="996632"/>
+          <a:off x="4513385" y="7754815"/>
+          <a:ext cx="1033468" cy="979738"/>
           <a:chOff x="385011" y="481263"/>
           <a:chExt cx="1026694" cy="962526"/>
         </a:xfrm>
@@ -9279,6 +9282,9051 @@
         <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="301" name="직선 연결선 300"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="그룹 1"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="128954" y="246185"/>
+          <a:ext cx="1031631" cy="981961"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="직사각형 2"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="4" name="그룹 3"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="5" name="직선 연결선 4"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="6" name="직선 연결선 5"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="7" name="직선 연결선 6"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="3" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="8" name="직선 연결선 7"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8021</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="9" name="그룹 8"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2458144" y="246185"/>
+          <a:ext cx="1029472" cy="981961"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="직사각형 9"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="11" name="그룹 10"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="12" name="직선 연결선 11"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="13" name="직선 연결선 12"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="14" name="직선 연결선 13"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="10" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="15" name="직선 연결선 14"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>128953</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="그룹 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1289538" y="246187"/>
+          <a:ext cx="1031631" cy="984737"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="17" name="직사각형 16"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="18" name="그룹 17"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="19" name="직선 연결선 18"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="20" name="직선 연결선 19"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="21" name="직선 연결선 20"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="17" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="22" name="직선 연결선 21"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="그룹 22"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="128954" y="1354015"/>
+          <a:ext cx="1031631" cy="978878"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="직사각형 23"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="25" name="그룹 24"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="26" name="직선 연결선 25"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="27" name="직선 연결선 26"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="28" name="직선 연결선 27"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="24" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="29" name="직선 연결선 28"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8021</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>5862</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="30" name="그룹 29"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2458144" y="1354015"/>
+          <a:ext cx="1029472" cy="979184"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="직사각형 30"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="32" name="그룹 31"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="33" name="직선 연결선 32"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="34" name="직선 연결선 33"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="35" name="직선 연결선 34"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="31" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="36" name="직선 연결선 35"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>128953</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="37" name="그룹 36"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1289538" y="1354016"/>
+          <a:ext cx="1031631" cy="984738"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="38" name="직사각형 37"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="39" name="그룹 38"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="40" name="직선 연결선 39"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="41" name="직선 연결선 40"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="42" name="직선 연결선 41"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="38" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="43" name="직선 연결선 42"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="44" name="그룹 43"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3610708" y="248963"/>
+          <a:ext cx="1031630" cy="981960"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="45" name="직사각형 44"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="46" name="그룹 45"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="47" name="직선 연결선 46"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="48" name="직선 연결선 47"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="49" name="직선 연결선 48"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="45" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="50" name="직선 연결선 49"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="51" name="그룹 50"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4771292" y="253439"/>
+          <a:ext cx="1031631" cy="977484"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="52" name="직사각형 51"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="53" name="그룹 52"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="54" name="직선 연결선 53"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="55" name="직선 연결선 54"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="56" name="직선 연결선 55"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="52" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="57" name="직선 연결선 56"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>17585</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118092</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="58" name="그룹 57"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3628293" y="1354015"/>
+          <a:ext cx="1014045" cy="979739"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="직사각형 58"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="60" name="그룹 59"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="61" name="직선 연결선 60"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="62" name="직선 연결선 61"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="63" name="직선 연결선 62"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="59" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="64" name="직선 연결선 63"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1838</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>118091</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="65" name="그룹 64"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4771292" y="1354015"/>
+          <a:ext cx="1033469" cy="979738"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="66" name="직사각형 65"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="67" name="그룹 66"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="68" name="직선 연결선 67"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="69" name="직선 연결선 68"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="70" name="직선 연결선 69"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="66" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="71" name="직선 연결선 70"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="72" name="그룹 71"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="128954" y="2461846"/>
+          <a:ext cx="1031631" cy="981961"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="73" name="직사각형 72"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="74" name="그룹 73"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="75" name="직선 연결선 74"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="76" name="직선 연결선 75"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="77" name="직선 연결선 76"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="73" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="78" name="직선 연결선 77"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="79" name="그룹 78"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2458143" y="2461846"/>
+          <a:ext cx="1023611" cy="981961"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="80" name="직사각형 79"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="81" name="그룹 80"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="82" name="직선 연결선 81"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="83" name="직선 연결선 82"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="84" name="직선 연결선 83"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="80" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="85" name="직선 연결선 84"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>128953</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="86" name="그룹 85"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1289538" y="2461847"/>
+          <a:ext cx="1031631" cy="984738"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="87" name="직사각형 86"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="88" name="그룹 87"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="89" name="직선 연결선 88"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="90" name="직선 연결선 89"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="91" name="직선 연결선 90"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="87" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="92" name="직선 연결선 91"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="93" name="그룹 92"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="128954" y="3570849"/>
+          <a:ext cx="1031631" cy="978011"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="94" name="직사각형 93"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="95" name="그룹 94"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="96" name="직선 연결선 95"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="97" name="직선 연결선 96"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="98" name="직선 연결선 97"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="94" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="99" name="직선 연결선 98"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="100" name="그룹 99"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2458143" y="3569677"/>
+          <a:ext cx="1023611" cy="979183"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="101" name="직사각형 100"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="102" name="그룹 101"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="103" name="직선 연결선 102"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="104" name="직선 연결선 103"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="105" name="직선 연결선 104"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="101" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="106" name="직선 연결선 105"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>128953</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="107" name="그룹 106"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1289538" y="3569678"/>
+          <a:ext cx="1031631" cy="984737"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="108" name="직사각형 107"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="109" name="그룹 108"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="110" name="직선 연결선 109"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="111" name="직선 연결선 110"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="112" name="직선 연결선 111"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="108" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="113" name="직선 연결선 112"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="114" name="그룹 113"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3610708" y="2464624"/>
+          <a:ext cx="1031630" cy="981961"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="115" name="직사각형 114"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="116" name="그룹 115"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="117" name="직선 연결선 116"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="118" name="직선 연결선 117"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="119" name="직선 연결선 118"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="115" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="120" name="직선 연결선 119"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="121" name="그룹 120"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4771292" y="2469100"/>
+          <a:ext cx="1031631" cy="977485"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="122" name="직사각형 121"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="123" name="그룹 122"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="124" name="직선 연결선 123"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="125" name="직선 연결선 124"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="126" name="직선 연결선 125"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="122" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="127" name="직선 연결선 126"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1839</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>118092</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="128" name="그룹 127"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3612547" y="3569677"/>
+          <a:ext cx="1029791" cy="979738"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="129" name="직사각형 128"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="130" name="그룹 129"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="131" name="직선 연결선 130"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="132" name="직선 연결선 131"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="133" name="직선 연결선 132"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="129" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="134" name="직선 연결선 133"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1838</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>118091</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="135" name="그룹 134"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4771292" y="3569677"/>
+          <a:ext cx="1033469" cy="979737"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="136" name="직사각형 135"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="137" name="그룹 136"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="138" name="직선 연결선 137"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="139" name="직선 연결선 138"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="140" name="직선 연결선 139"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="136" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="141" name="직선 연결선 140"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="142" name="그룹 141"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="128954" y="4677508"/>
+          <a:ext cx="1031631" cy="981961"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="143" name="직사각형 142"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="144" name="그룹 143"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="145" name="직선 연결선 144"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="146" name="직선 연결선 145"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="147" name="직선 연결선 146"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="143" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="148" name="직선 연결선 147"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="149" name="그룹 148"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2458143" y="4677508"/>
+          <a:ext cx="1023611" cy="981961"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="150" name="직사각형 149"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="151" name="그룹 150"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="152" name="직선 연결선 151"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="153" name="직선 연결선 152"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="154" name="직선 연결선 153"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="150" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="155" name="직선 연결선 154"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>17585</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="156" name="그룹 155"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1307123" y="4677508"/>
+          <a:ext cx="1014046" cy="984738"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="157" name="직사각형 156"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="158" name="그룹 157"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="159" name="직선 연결선 158"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="160" name="직선 연결선 159"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="161" name="직선 연결선 160"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="157" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="162" name="직선 연결선 161"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="163" name="그룹 162"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="128954" y="5785338"/>
+          <a:ext cx="1031631" cy="979184"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="164" name="직사각형 163"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="165" name="그룹 164"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="166" name="직선 연결선 165"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="167" name="직선 연결선 166"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="168" name="직선 연결선 167"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="164" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="169" name="직선 연결선 168"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="170" name="그룹 169"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2458143" y="5785338"/>
+          <a:ext cx="1023611" cy="979184"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="171" name="직사각형 170"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="172" name="그룹 171"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="173" name="직선 연결선 172"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="174" name="직선 연결선 173"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="175" name="직선 연결선 174"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="171" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="176" name="직선 연결선 175"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>128953</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="177" name="그룹 176"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1289538" y="5785339"/>
+          <a:ext cx="1031631" cy="984738"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="178" name="직사각형 177"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="179" name="그룹 178"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="180" name="직선 연결선 179"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="181" name="직선 연결선 180"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="182" name="직선 연결선 181"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="178" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="183" name="직선 연결선 182"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>2778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="184" name="그룹 183"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3610708" y="4680286"/>
+          <a:ext cx="1031630" cy="981960"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="185" name="직사각형 184"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="186" name="그룹 185"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="187" name="직선 연결선 186"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="188" name="직선 연결선 187"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="189" name="직선 연결선 188"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="185" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="190" name="직선 연결선 189"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="191" name="그룹 190"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4771292" y="4684762"/>
+          <a:ext cx="1031631" cy="977484"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="192" name="직사각형 191"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="193" name="그룹 192"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="194" name="직선 연결선 193"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="195" name="직선 연결선 194"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="196" name="직선 연결선 195"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="192" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="197" name="직선 연결선 196"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1839</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>128953</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>118092</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="198" name="그룹 197"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3612547" y="5785338"/>
+          <a:ext cx="1029791" cy="979739"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="199" name="직사각형 198"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="200" name="그룹 199"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="201" name="직선 연결선 200"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="202" name="직선 연결선 201"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="203" name="직선 연결선 202"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="199" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="204" name="직선 연결선 203"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1838</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>118091</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="205" name="그룹 204"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4771292" y="5785338"/>
+          <a:ext cx="1033469" cy="979738"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="206" name="직사각형 205"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="207" name="그룹 206"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="208" name="직선 연결선 207"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="209" name="직선 연결선 208"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="210" name="직선 연결선 209"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="206" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="211" name="직선 연결선 210"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="212" name="그룹 211"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="128954" y="6893169"/>
+          <a:ext cx="1031631" cy="981961"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="213" name="직사각형 212"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="214" name="그룹 213"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="215" name="직선 연결선 214"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="216" name="직선 연결선 215"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="217" name="직선 연결선 216"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="213" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="218" name="직선 연결선 217"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>120315</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="219" name="그룹 218"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2458143" y="6893169"/>
+          <a:ext cx="1023611" cy="981961"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="220" name="직사각형 219"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="221" name="그룹 220"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="222" name="직선 연결선 221"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="223" name="직선 연결선 222"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="224" name="직선 연결선 223"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="220" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="225" name="직선 연결선 224"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>128953</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="226" name="그룹 225"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1289538" y="6893170"/>
+          <a:ext cx="1031631" cy="984738"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="227" name="직사각형 226"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="228" name="그룹 227"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="229" name="직선 연결선 228"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="230" name="직선 연결선 229"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="231" name="직선 연결선 230"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="227" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="232" name="직선 연결선 231"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="233" name="그룹 232"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="128954" y="8001000"/>
+          <a:ext cx="1031631" cy="979183"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="234" name="직사각형 233"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="235" name="그룹 234"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="236" name="직선 연결선 235"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="237" name="직선 연결선 236"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="238" name="직선 연결선 237"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="234" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="239" name="직선 연결선 238"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8020</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>117537</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="240" name="그룹 239"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2458143" y="8001000"/>
+          <a:ext cx="1023611" cy="979183"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="241" name="직사각형 240"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="242" name="그룹 241"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="243" name="직선 연결선 242"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="244" name="직선 연결선 243"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="245" name="직선 연결선 244"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="241" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="246" name="직선 연결선 245"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="247" name="그룹 246"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1289539" y="8001001"/>
+          <a:ext cx="1031630" cy="984737"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="248" name="직사각형 247"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="249" name="그룹 248"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="250" name="직선 연결선 249"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="251" name="직선 연결선 250"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="252" name="직선 연결선 251"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="248" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="253" name="직선 연결선 252"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>2778</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="254" name="그룹 253"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3610708" y="6895947"/>
+          <a:ext cx="1031630" cy="981961"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="255" name="직사각형 254"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="256" name="그룹 255"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="257" name="직선 연결선 256"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="258" name="직선 연결선 257"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="259" name="직선 연결선 258"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="255" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="260" name="직선 연결선 259"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>7255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="261" name="그룹 260"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4771292" y="6900424"/>
+          <a:ext cx="1031631" cy="977485"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="262" name="직사각형 261"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="263" name="그룹 262"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="264" name="직선 연결선 263"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="265" name="직선 연결선 264"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="266" name="직선 연결선 265"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="262" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="267" name="직선 연결선 266"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>1839</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>118092</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="268" name="그룹 267"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3612547" y="8001000"/>
+          <a:ext cx="1029791" cy="979738"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="269" name="직사각형 268"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="270" name="그룹 269"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="271" name="직선 연결선 270"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="272" name="직선 연결선 271"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="273" name="직선 연결선 272"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="269" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="274" name="직선 연결선 273"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipV="1">
+              <a:off x="898358" y="481264"/>
+              <a:ext cx="0" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>1838</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>118091</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="275" name="그룹 274"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4771292" y="8001000"/>
+          <a:ext cx="1033469" cy="979737"/>
+          <a:chOff x="385011" y="481263"/>
+          <a:chExt cx="1026694" cy="962526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="276" name="직사각형 275"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="277" name="그룹 276"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="385011" y="481263"/>
+            <a:ext cx="1026694" cy="962526"/>
+            <a:chOff x="385011" y="481263"/>
+            <a:chExt cx="1026694" cy="962526"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="278" name="직선 연결선 277"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm flipH="1">
+              <a:off x="385012" y="481264"/>
+              <a:ext cx="1026693" cy="962525"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="279" name="직선 연결선 278"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="481263"/>
+              <a:ext cx="1026694" cy="962526"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="280" name="직선 연결선 279"/>
+            <xdr:cNvCxnSpPr>
+              <a:stCxn id="276" idx="1"/>
+            </xdr:cNvCxnSpPr>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="385011" y="962526"/>
+              <a:ext cx="1026694" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="line">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln w="2540">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="281" name="직선 연결선 280"/>
             <xdr:cNvCxnSpPr/>
           </xdr:nvCxnSpPr>
           <xdr:spPr>
@@ -13598,14 +22646,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A32"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="AL75" sqref="AL75"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="BA45" sqref="BA45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.69921875" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="32" s="17" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="R88" sqref="R88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="1.69921875" defaultRowHeight="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="30" s="17" customFormat="1" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
